--- a/stockinfo.xlsx
+++ b/stockinfo.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>名字</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>成本价</t>
+  </si>
+  <si>
+    <t>上证指数</t>
+  </si>
+  <si>
+    <t>sh000001</t>
   </si>
   <si>
     <t>居然之家</t>
@@ -266,6 +272,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -375,12 +387,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,7 +589,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,16 +613,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -625,54 +631,54 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -707,8 +713,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1025,13 +1037,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.9090909090909" customWidth="1"/>
     <col min="3" max="3" width="13.8181818181818" customWidth="1"/>
@@ -1062,7 +1074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1070,81 +1082,83 @@
         <v>8</v>
       </c>
       <c r="C2" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="D2">
-        <v>3.1</v>
-      </c>
-      <c r="E2" t="b">
         <v>0</v>
       </c>
+      <c r="D2" s="2">
+        <v>999999</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1">
-        <v>3</v>
+      <c r="C3" s="3">
+        <v>2.7</v>
       </c>
       <c r="D3">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1">
-        <v>7.5</v>
+      <c r="C4" s="3">
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1">
-        <v>18</v>
+      <c r="C5" s="3">
+        <v>7.5</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>9.1</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
-        <v>15</v>
+      <c r="C6" s="3">
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1155,10 +1169,10 @@
         <v>18</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1172,12 +1186,29 @@
         <v>20</v>
       </c>
       <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>29</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
         <v>40</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>49</v>
       </c>
-      <c r="E8" t="b">
+      <c r="E9" t="b">
         <v>1</v>
       </c>
     </row>

--- a/stockinfo.xlsx
+++ b/stockinfo.xlsx
@@ -76,28 +76,28 @@
     <t>sh600343</t>
   </si>
   <si>
+    <t>江淮汽车</t>
+  </si>
+  <si>
+    <t>sh600418</t>
+  </si>
+  <si>
+    <t>恩华药业</t>
+  </si>
+  <si>
+    <t>sz002262</t>
+  </si>
+  <si>
+    <t>恒瑞医药</t>
+  </si>
+  <si>
+    <t>sh600276</t>
+  </si>
+  <si>
     <t>人福医药</t>
   </si>
   <si>
     <t>sh600079</t>
-  </si>
-  <si>
-    <t>江淮汽车</t>
-  </si>
-  <si>
-    <t>sh600418</t>
-  </si>
-  <si>
-    <t>恩华药业</t>
-  </si>
-  <si>
-    <t>sz002262</t>
-  </si>
-  <si>
-    <t>恒瑞医药</t>
-  </si>
-  <si>
-    <t>sh600276</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1040,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1101,7 +1101,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="3">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="D3">
         <v>3.1</v>
@@ -1118,7 +1118,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D4">
         <v>3.8</v>
@@ -1145,20 +1145,20 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3">
-        <v>18</v>
+      <c r="C6">
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1169,10 +1169,10 @@
         <v>18</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1186,10 +1186,10 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1199,17 +1199,17 @@
       <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9">
-        <v>40</v>
+      <c r="C9" s="3">
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/stockinfo.xlsx
+++ b/stockinfo.xlsx
@@ -1040,7 +1040,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1101,7 +1101,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="3">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>3.1</v>
@@ -1118,7 +1118,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="3">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="D4">
         <v>3.8</v>
@@ -1135,7 +1135,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="3">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>9.1</v>
@@ -1152,7 +1152,7 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>22</v>
@@ -1186,7 +1186,7 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>49</v>
@@ -1203,7 +1203,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>21</v>
